--- a/internal/logconv/testdata/log.xlsx
+++ b/internal/logconv/testdata/log.xlsx
@@ -118,145 +118,145 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF89C923"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF89C923"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF2D00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF2D00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color rgb="FF89C923"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color rgb="FFDDA100"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color rgb="FFFF2D00"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color rgb="FF000000"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF89C923"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FFDDA100"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FFFF2D00"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -528,19 +528,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" max="1" min="1" style="2" width="20"/>
-    <col customWidth="true" max="3" min="3" style="3" width="15"/>
-    <col customWidth="true" max="4" min="4" width="30"/>
+    <col customWidth="true" max="1" min="1" width="20"/>
+    <col customWidth="true" max="3" min="3" width="15"/>
+    <col customWidth="true" max="5" min="4" width="30"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -559,169 +559,135 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" s="1" customFormat="true">
       <c r="A2" s="2">
         <v>44198.62783564815</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>123.456</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2">
+    <row r="3" s="5" customFormat="true">
+      <c r="A3" s="6">
         <v>44198.62783564815</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="8">
         <v>12.345</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" s="1" customFormat="true">
       <c r="A4" s="2">
         <v>44198.627847222226</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>234.567</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" s="1" customFormat="true">
       <c r="A5" s="2">
         <v>44198.627847222226</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>54.321</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" s="1" customFormat="true">
       <c r="A6" s="2">
         <v>44198.627858796295</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>345.678</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2">
+    <row r="7" s="9" customFormat="true">
+      <c r="A7" s="10">
         <v>44198.62787037037</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="12">
         <v>1.234</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2">
+    <row r="8" s="13" customFormat="true">
+      <c r="A8" s="14">
         <v>44198.62788194444</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="16">
         <v>2.345</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="13" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$H$1"/>
-  <conditionalFormatting sqref="B:B">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"HEALTHY"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"DEGRADE"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"FAILURE"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"UNKNOWN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"ABORTED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A:H">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>=$B1="HEALTHY"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>=$B1="DEGRADE"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>=$B1="FAILURE"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>=$B1="UNKNOWN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>=$B1="ABORTED"</formula>
-    </cfRule>
-  </conditionalFormatting>
 </worksheet>
 </file>
--- a/internal/logconv/testdata/log.xlsx
+++ b/internal/logconv/testdata/log.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>time</t>
+    <t>time (UTC)</t>
   </si>
   <si>
     <t>status</t>
@@ -99,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss&quot;Z&quot;"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="#,##0.000 &quot;ms&quot;"/>
   </numFmts>
   <fonts count="1">

--- a/internal/logconv/testdata/log.xlsx
+++ b/internal/logconv/testdata/log.xlsx
@@ -626,6 +626,9 @@
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F5" s="1">
+        <v>1.234</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="true">
       <c r="A6" s="2">

--- a/internal/logconv/testdata/log.xlsx
+++ b/internal/logconv/testdata/log.xlsx
@@ -262,120 +262,120 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
+<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <themeElements>
+    <clrScheme name="Office">
+      <dk1>
+        <sysClr val="windowText" lastClr="000000"/>
+      </dk1>
+      <lt1>
+        <sysClr val="window" lastClr="FFFFFF"/>
+      </lt1>
+      <dk2>
+        <srgbClr val="44546A"/>
+      </dk2>
+      <lt2>
+        <srgbClr val="E7E6E6"/>
+      </lt2>
+      <accent1>
+        <srgbClr val="5B9BD5"/>
+      </accent1>
+      <accent2>
+        <srgbClr val="ED7D31"/>
+      </accent2>
+      <accent3>
+        <srgbClr val="A5A5A5"/>
+      </accent3>
+      <accent4>
+        <srgbClr val="FFC000"/>
+      </accent4>
+      <accent5>
+        <srgbClr val="4472C4"/>
+      </accent5>
+      <accent6>
+        <srgbClr val="70AD47"/>
+      </accent6>
+      <hlink>
+        <srgbClr val="0563C1"/>
+      </hlink>
+      <folHlink>
+        <srgbClr val="954F72"/>
+      </folHlink>
+    </clrScheme>
+    <fontScheme name="Office">
+      <majorFont>
+        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="游ゴシック Light"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="等线 Light"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Times New Roman"/>
+        <font script="Hebr" typeface="Times New Roman"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="MoolBoran"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Times New Roman"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+      </majorFont>
+      <minorFont>
+        <latin typeface="Calibri" panose="020F0502020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="游ゴシック"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="等线"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Arial"/>
+        <font script="Hebr" typeface="Arial"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="DaunPenh"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Arial"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+      </minorFont>
+    </fontScheme>
+    <fmtScheme name="Office">
+      <fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -431,8 +431,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
+      </fillStyleLst>
+      <lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -454,8 +454,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
+      </lnStyleLst>
+      <effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -471,8 +471,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
+      </effectStyleLst>
+      <bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -509,12 +509,12 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
+      </bgFillStyleLst>
+    </fmtScheme>
+  </themeElements>
+  <objectDefaults/>
+  <extraClrSchemeLst/>
+</theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/internal/logconv/testdata/log.xlsx
+++ b/internal/logconv/testdata/log.xlsx
@@ -10,7 +10,7 @@
     <sheet name="log" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="true" localSheetId="0" name="_xlnm._FilterDatabase">'log'!$A$1:$H$1</definedName>
+    <definedName hidden="true" localSheetId="0" name="_xlnm.Criteria">'log'!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -262,120 +262,120 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <themeElements>
-    <clrScheme name="Office">
-      <dk1>
-        <sysClr val="windowText" lastClr="000000"/>
-      </dk1>
-      <lt1>
-        <sysClr val="window" lastClr="FFFFFF"/>
-      </lt1>
-      <dk2>
-        <srgbClr val="44546A"/>
-      </dk2>
-      <lt2>
-        <srgbClr val="E7E6E6"/>
-      </lt2>
-      <accent1>
-        <srgbClr val="5B9BD5"/>
-      </accent1>
-      <accent2>
-        <srgbClr val="ED7D31"/>
-      </accent2>
-      <accent3>
-        <srgbClr val="A5A5A5"/>
-      </accent3>
-      <accent4>
-        <srgbClr val="FFC000"/>
-      </accent4>
-      <accent5>
-        <srgbClr val="4472C4"/>
-      </accent5>
-      <accent6>
-        <srgbClr val="70AD47"/>
-      </accent6>
-      <hlink>
-        <srgbClr val="0563C1"/>
-      </hlink>
-      <folHlink>
-        <srgbClr val="954F72"/>
-      </folHlink>
-    </clrScheme>
-    <fontScheme name="Office">
-      <majorFont>
-        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック Light"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线 Light"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Times New Roman"/>
-        <font script="Hebr" typeface="Times New Roman"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="MoolBoran"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Times New Roman"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </majorFont>
-      <minorFont>
-        <latin typeface="Calibri" panose="020F0502020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Arial"/>
-        <font script="Hebr" typeface="Arial"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="DaunPenh"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Arial"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </minorFont>
-    </fontScheme>
-    <fmtScheme name="Office">
-      <fillStyleLst>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -431,8 +431,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </fillStyleLst>
-      <lnStyleLst>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -454,8 +454,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </lnStyleLst>
-      <effectStyleLst>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -471,8 +471,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </effectStyleLst>
-      <bgFillStyleLst>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -509,12 +509,12 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </bgFillStyleLst>
-    </fmtScheme>
-  </themeElements>
-  <objectDefaults/>
-  <extraClrSchemeLst/>
-</theme>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/internal/logconv/testdata/log.xlsx
+++ b/internal/logconv/testdata/log.xlsx
@@ -10,7 +10,7 @@
     <sheet name="log" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="true" localSheetId="0" name="_xlnm.Criteria">'log'!$A$1:$H$1</definedName>
+    <definedName hidden="true" localSheetId="0" name="_xlnm._FilterDatabase">'log'!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -110,13 +110,14 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill/>
   </fills>
   <borders count="9">
     <border>
@@ -202,11 +203,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
@@ -219,6 +223,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
@@ -228,9 +235,21 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
@@ -241,6 +260,9 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
@@ -560,13 +582,13 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="true">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>44198.62783564815</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>123.456</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -576,31 +598,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="true">
-      <c r="A3" s="6">
+    <row r="3" s="6" customFormat="true">
+      <c r="A3" s="8">
         <v>44198.62783564815</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>12.345</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="true">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>44198.627847222226</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>234.567</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -611,13 +633,13 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="true">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>44198.627847222226</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>54.321</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -631,13 +653,13 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="true">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>44198.627858796295</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>345.678</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -647,46 +669,46 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="true">
-      <c r="A7" s="10">
+    <row r="7" s="14" customFormat="true">
+      <c r="A7" s="16">
         <v>44198.62787037037</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="18">
         <v>1.234</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" s="13" customFormat="true">
-      <c r="A8" s="14">
+    <row r="8" s="19" customFormat="true">
+      <c r="A8" s="21">
         <v>44198.62788194444</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="23">
         <v>2.345</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="19" t="s">
         <v>24</v>
       </c>
     </row>

--- a/internal/logconv/testdata/log.xlsx
+++ b/internal/logconv/testdata/log.xlsx
@@ -110,14 +110,13 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill/>
   </fills>
   <borders count="9">
     <border>
@@ -128,76 +127,44 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF89C923"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+    </border>
+    <border>
       <bottom style="thick">
         <color rgb="FF89C923"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+    </border>
+    <border>
       <bottom style="thin">
         <color rgb="FFFF2D00"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+    </border>
+    <border>
       <bottom style="thick">
         <color rgb="FFFF2D00"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+    </border>
+    <border>
       <bottom style="thin">
         <color rgb="FFC0C0C0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+    </border>
+    <border>
       <bottom style="thick">
         <color rgb="FFC0C0C0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+    </border>
+    <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+    </border>
+    <border>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -208,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="false">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
@@ -223,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="false">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
@@ -235,19 +202,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="false">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="false">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
@@ -262,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="false">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">

--- a/internal/logconv/testdata/log.xlsx
+++ b/internal/logconv/testdata/log.xlsx
@@ -104,10 +104,10 @@
   </numFmts>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
